--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行状态.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行状态.xlsx
@@ -10689,11 +10689,11 @@
   <dimension ref="A1:BU552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -11886,13 +11886,29 @@
         <f t="shared" si="0"/>
         <v>11602</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
+      <c r="K14" s="28">
+        <v>118</v>
+      </c>
+      <c r="L14" s="28">
+        <v>113.58</v>
+      </c>
+      <c r="M14" s="28">
+        <v>128.61</v>
+      </c>
+      <c r="N14" s="28">
+        <v>102.72</v>
+      </c>
+      <c r="O14" s="28">
+        <f>M14-N14</f>
+        <v>25.89</v>
+      </c>
+      <c r="P14" s="28">
+        <v>50.45</v>
+      </c>
+      <c r="Q14" s="53">
+        <f>(K14-F14)/(K14-L14)</f>
+        <v>0.459276018099548</v>
+      </c>
       <c r="R14" s="61">
         <v>110.4</v>
       </c>
@@ -11947,13 +11963,29 @@
         <f t="shared" si="0"/>
         <v>3920.0783</v>
       </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
+      <c r="K15" s="28">
+        <v>39.16</v>
+      </c>
+      <c r="L15" s="28">
+        <v>37.55</v>
+      </c>
+      <c r="M15" s="28">
+        <v>41.07</v>
+      </c>
+      <c r="N15" s="28">
+        <v>32.21</v>
+      </c>
+      <c r="O15" s="28">
+        <f>M15-N15</f>
+        <v>8.86</v>
+      </c>
+      <c r="P15" s="28">
+        <v>14.76</v>
+      </c>
+      <c r="Q15" s="53">
+        <f>(K15-F15)/(K15-L15)</f>
+        <v>0.00621118012422237</v>
+      </c>
       <c r="R15" s="61">
         <v>35.91</v>
       </c>
@@ -12008,13 +12040,29 @@
         <f t="shared" si="0"/>
         <v>6435.1286</v>
       </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
+      <c r="K16" s="28">
+        <v>64.47</v>
+      </c>
+      <c r="L16" s="28">
+        <v>59.34</v>
+      </c>
+      <c r="M16" s="28">
+        <v>69.25</v>
+      </c>
+      <c r="N16" s="28">
+        <v>52.2</v>
+      </c>
+      <c r="O16" s="28">
+        <f>M16-N16</f>
+        <v>17.05</v>
+      </c>
+      <c r="P16" s="28">
+        <v>100.55</v>
+      </c>
+      <c r="Q16" s="53">
+        <f>(K16-F16)/(K16-L16)</f>
+        <v>0.0331384015594546</v>
+      </c>
       <c r="R16" s="61">
         <v>58.51</v>
       </c>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行状态.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行状态.xlsx
@@ -10689,11 +10689,11 @@
   <dimension ref="A1:BU552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
+      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -11757,11 +11757,11 @@
         <v>0.504273504273506</v>
       </c>
       <c r="R12" s="61">
-        <v>33.21</v>
+        <v>33.38</v>
       </c>
       <c r="S12" s="62">
         <f t="shared" ref="S9:S16" si="2">(F12-R12)*G12+H12+I12+5</f>
-        <v>914.150919999999</v>
+        <v>880.150919999999</v>
       </c>
       <c r="T12" s="28"/>
       <c r="U12" s="28"/>
@@ -11834,11 +11834,11 @@
         <v>0.28205128205128</v>
       </c>
       <c r="R13" s="61">
-        <v>33.21</v>
+        <v>33.38</v>
       </c>
       <c r="S13" s="62">
         <f t="shared" si="2"/>
-        <v>966.15196</v>
+        <v>932.15196</v>
       </c>
       <c r="T13" s="28"/>
       <c r="U13" s="28"/>
@@ -26434,7 +26434,7 @@
     <row r="2" spans="1:6">
       <c r="A2" s="10">
         <f>SUM(交易计划及执行表!S4:S16)</f>
-        <v>3747.57724</v>
+        <v>3679.57724</v>
       </c>
       <c r="B2" s="6">
         <v>0.3333</v>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行状态.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行状态.xlsx
@@ -1824,7 +1824,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2048,6 +2048,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6659,11 +6662,11 @@
   <dimension ref="A1:BV552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="AB4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="AA4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF5" sqref="AF5"/>
+      <selection pane="bottomRight" activeCell="AD7" sqref="AD7:AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -6735,54 +6738,54 @@
       <c r="V1" s="69"/>
       <c r="W1" s="69"/>
       <c r="X1" s="69"/>
-      <c r="Y1" s="75"/>
+      <c r="Y1" s="76"/>
       <c r="Z1" s="69"/>
       <c r="AA1" s="69"/>
       <c r="AB1" s="69"/>
       <c r="AC1" s="69"/>
-      <c r="AD1" s="80" t="s">
+      <c r="AD1" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85"/>
-      <c r="AQ1" s="96"/>
-      <c r="AR1" s="96"/>
-      <c r="AS1" s="96"/>
-      <c r="AT1" s="96"/>
-      <c r="AU1" s="96"/>
-      <c r="AV1" s="96"/>
-      <c r="AW1" s="96"/>
-      <c r="AX1" s="96"/>
-      <c r="AZ1" s="96"/>
-      <c r="BA1" s="96"/>
-      <c r="BB1" s="96"/>
-      <c r="BC1" s="96"/>
-      <c r="BD1" s="96"/>
-      <c r="BE1" s="96"/>
-      <c r="BF1" s="96"/>
-      <c r="BH1" s="96"/>
-      <c r="BI1" s="96"/>
-      <c r="BJ1" s="96"/>
-      <c r="BK1" s="96"/>
-      <c r="BL1" s="96"/>
-      <c r="BM1" s="96"/>
-      <c r="BN1" s="96"/>
-      <c r="BP1" s="96"/>
-      <c r="BQ1" s="96"/>
-      <c r="BR1" s="96"/>
-      <c r="BS1" s="96"/>
-      <c r="BT1" s="96"/>
-      <c r="BU1" s="96"/>
-      <c r="BV1" s="96"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="97"/>
+      <c r="AV1" s="97"/>
+      <c r="AW1" s="97"/>
+      <c r="AX1" s="97"/>
+      <c r="AZ1" s="97"/>
+      <c r="BA1" s="97"/>
+      <c r="BB1" s="97"/>
+      <c r="BC1" s="97"/>
+      <c r="BD1" s="97"/>
+      <c r="BE1" s="97"/>
+      <c r="BF1" s="97"/>
+      <c r="BH1" s="97"/>
+      <c r="BI1" s="97"/>
+      <c r="BJ1" s="97"/>
+      <c r="BK1" s="97"/>
+      <c r="BL1" s="97"/>
+      <c r="BM1" s="97"/>
+      <c r="BN1" s="97"/>
+      <c r="BP1" s="97"/>
+      <c r="BQ1" s="97"/>
+      <c r="BR1" s="97"/>
+      <c r="BS1" s="97"/>
+      <c r="BT1" s="97"/>
+      <c r="BU1" s="97"/>
+      <c r="BV1" s="97"/>
     </row>
     <row r="2" ht="23.6" spans="1:74">
       <c r="A2" s="18"/>
@@ -6843,7 +6846,7 @@
       <c r="X2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="76" t="s">
+      <c r="Y2" s="77" t="s">
         <v>26</v>
       </c>
       <c r="Z2" s="70" t="s">
@@ -6858,53 +6861,53 @@
       <c r="AC2" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="81" t="s">
+      <c r="AD2" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="81" t="s">
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="86" t="s">
+      <c r="AG2" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="85"/>
-      <c r="AQ2" s="96"/>
-      <c r="AR2" s="96"/>
-      <c r="AS2" s="96"/>
-      <c r="AT2" s="96"/>
-      <c r="AU2" s="96"/>
-      <c r="AV2" s="96"/>
-      <c r="AW2" s="96"/>
-      <c r="AX2" s="96"/>
-      <c r="AZ2" s="96"/>
-      <c r="BA2" s="96"/>
-      <c r="BB2" s="96"/>
-      <c r="BC2" s="96"/>
-      <c r="BD2" s="96"/>
-      <c r="BE2" s="96"/>
-      <c r="BF2" s="96"/>
-      <c r="BH2" s="96"/>
-      <c r="BI2" s="96"/>
-      <c r="BJ2" s="96"/>
-      <c r="BK2" s="96"/>
-      <c r="BL2" s="96"/>
-      <c r="BM2" s="96"/>
-      <c r="BN2" s="96"/>
-      <c r="BP2" s="96"/>
-      <c r="BQ2" s="96"/>
-      <c r="BR2" s="96"/>
-      <c r="BS2" s="96"/>
-      <c r="BT2" s="96"/>
-      <c r="BU2" s="96"/>
-      <c r="BV2" s="96"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
+      <c r="AW2" s="97"/>
+      <c r="AX2" s="97"/>
+      <c r="AZ2" s="97"/>
+      <c r="BA2" s="97"/>
+      <c r="BB2" s="97"/>
+      <c r="BC2" s="97"/>
+      <c r="BD2" s="97"/>
+      <c r="BE2" s="97"/>
+      <c r="BF2" s="97"/>
+      <c r="BH2" s="97"/>
+      <c r="BI2" s="97"/>
+      <c r="BJ2" s="97"/>
+      <c r="BK2" s="97"/>
+      <c r="BL2" s="97"/>
+      <c r="BM2" s="97"/>
+      <c r="BN2" s="97"/>
+      <c r="BP2" s="97"/>
+      <c r="BQ2" s="97"/>
+      <c r="BR2" s="97"/>
+      <c r="BS2" s="97"/>
+      <c r="BT2" s="97"/>
+      <c r="BU2" s="97"/>
+      <c r="BV2" s="97"/>
     </row>
     <row r="3" ht="23.6" spans="1:74">
       <c r="A3" s="23"/>
@@ -6937,65 +6940,65 @@
       <c r="V3" s="71"/>
       <c r="W3" s="70"/>
       <c r="X3" s="71"/>
-      <c r="Y3" s="77"/>
+      <c r="Y3" s="78"/>
       <c r="Z3" s="71"/>
       <c r="AA3" s="70"/>
       <c r="AB3" s="70"/>
       <c r="AC3" s="71"/>
-      <c r="AD3" s="81" t="s">
+      <c r="AD3" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="AE3" s="81" t="s">
+      <c r="AE3" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="85"/>
-      <c r="AO3" s="85"/>
-      <c r="AQ3" s="96"/>
-      <c r="AR3" s="96"/>
-      <c r="AS3" s="96"/>
-      <c r="AT3" s="96"/>
-      <c r="AU3" s="96"/>
-      <c r="AV3" s="96"/>
-      <c r="AW3" s="96"/>
-      <c r="AX3" s="96"/>
-      <c r="AZ3" s="96"/>
-      <c r="BA3" s="96"/>
-      <c r="BB3" s="96"/>
-      <c r="BC3" s="96"/>
-      <c r="BD3" s="96"/>
-      <c r="BE3" s="96"/>
-      <c r="BF3" s="96"/>
-      <c r="BH3" s="96"/>
-      <c r="BI3" s="96"/>
-      <c r="BJ3" s="96"/>
-      <c r="BK3" s="96"/>
-      <c r="BL3" s="96"/>
-      <c r="BM3" s="96"/>
-      <c r="BN3" s="96"/>
-      <c r="BP3" s="96"/>
-      <c r="BQ3" s="96"/>
-      <c r="BR3" s="96"/>
-      <c r="BS3" s="96"/>
-      <c r="BT3" s="96"/>
-      <c r="BU3" s="96"/>
-      <c r="BV3" s="96"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="88"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="86"/>
+      <c r="AJ3" s="86"/>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="86"/>
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="86"/>
+      <c r="AQ3" s="97"/>
+      <c r="AR3" s="97"/>
+      <c r="AS3" s="97"/>
+      <c r="AT3" s="97"/>
+      <c r="AU3" s="97"/>
+      <c r="AV3" s="97"/>
+      <c r="AW3" s="97"/>
+      <c r="AX3" s="97"/>
+      <c r="AZ3" s="97"/>
+      <c r="BA3" s="97"/>
+      <c r="BB3" s="97"/>
+      <c r="BC3" s="97"/>
+      <c r="BD3" s="97"/>
+      <c r="BE3" s="97"/>
+      <c r="BF3" s="97"/>
+      <c r="BH3" s="97"/>
+      <c r="BI3" s="97"/>
+      <c r="BJ3" s="97"/>
+      <c r="BK3" s="97"/>
+      <c r="BL3" s="97"/>
+      <c r="BM3" s="97"/>
+      <c r="BN3" s="97"/>
+      <c r="BP3" s="97"/>
+      <c r="BQ3" s="97"/>
+      <c r="BR3" s="97"/>
+      <c r="BS3" s="97"/>
+      <c r="BT3" s="97"/>
+      <c r="BU3" s="97"/>
+      <c r="BV3" s="97"/>
     </row>
     <row r="4" s="13" customFormat="1" ht="23.6" spans="1:74">
       <c r="A4" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="99" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="27" t="s">
@@ -7062,11 +7065,11 @@
       <c r="X4" s="73">
         <v>5</v>
       </c>
-      <c r="Y4" s="78">
+      <c r="Y4" s="79">
         <f>V4*W4*0.001</f>
         <v>2.489</v>
       </c>
-      <c r="Z4" s="79">
+      <c r="Z4" s="80">
         <f>V4*W4-X4-Y4</f>
         <v>2481.511</v>
       </c>
@@ -7076,62 +7079,62 @@
       <c r="AB4" s="74">
         <v>24.74</v>
       </c>
-      <c r="AC4" s="83">
+      <c r="AC4" s="84">
         <f>(V4-AB4)/(AA4-AB4)</f>
         <v>0.0557620817843874</v>
       </c>
-      <c r="AD4" s="79">
+      <c r="AD4" s="80">
         <f>Z4-K4/2</f>
         <v>-140.989</v>
       </c>
-      <c r="AE4" s="84">
+      <c r="AE4" s="85">
         <f>AD4+AD5</f>
-        <v>-1.25900000000001</v>
-      </c>
-      <c r="AF4" s="83">
+        <v>-1.25899999999999</v>
+      </c>
+      <c r="AF4" s="84">
         <f>(V4-G4)/P4</f>
         <v>-0.20859872611465</v>
       </c>
-      <c r="AG4" s="88" t="s">
+      <c r="AG4" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="97"/>
-      <c r="AS4" s="97"/>
-      <c r="AT4" s="97"/>
-      <c r="AU4" s="97"/>
-      <c r="AV4" s="97"/>
-      <c r="AW4" s="97"/>
-      <c r="AX4" s="97"/>
-      <c r="AZ4" s="97"/>
-      <c r="BA4" s="97"/>
-      <c r="BB4" s="97"/>
-      <c r="BC4" s="97"/>
-      <c r="BD4" s="97"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="97"/>
-      <c r="BH4" s="97"/>
-      <c r="BI4" s="97"/>
-      <c r="BJ4" s="97"/>
-      <c r="BK4" s="97"/>
-      <c r="BL4" s="97"/>
-      <c r="BM4" s="97"/>
-      <c r="BN4" s="97"/>
-      <c r="BP4" s="97"/>
-      <c r="BQ4" s="97"/>
-      <c r="BR4" s="97"/>
-      <c r="BS4" s="97"/>
-      <c r="BT4" s="97"/>
-      <c r="BU4" s="97"/>
-      <c r="BV4" s="97"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="91"/>
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="98"/>
+      <c r="AS4" s="98"/>
+      <c r="AT4" s="98"/>
+      <c r="AU4" s="98"/>
+      <c r="AV4" s="98"/>
+      <c r="AW4" s="98"/>
+      <c r="AX4" s="98"/>
+      <c r="AZ4" s="98"/>
+      <c r="BA4" s="98"/>
+      <c r="BB4" s="98"/>
+      <c r="BC4" s="98"/>
+      <c r="BD4" s="98"/>
+      <c r="BE4" s="98"/>
+      <c r="BF4" s="98"/>
+      <c r="BH4" s="98"/>
+      <c r="BI4" s="98"/>
+      <c r="BJ4" s="98"/>
+      <c r="BK4" s="98"/>
+      <c r="BL4" s="98"/>
+      <c r="BM4" s="98"/>
+      <c r="BN4" s="98"/>
+      <c r="BP4" s="98"/>
+      <c r="BQ4" s="98"/>
+      <c r="BR4" s="98"/>
+      <c r="BS4" s="98"/>
+      <c r="BT4" s="98"/>
+      <c r="BU4" s="98"/>
+      <c r="BV4" s="98"/>
     </row>
     <row r="5" s="13" customFormat="1" ht="13" spans="1:34">
       <c r="A5" s="26" t="s">
@@ -7170,11 +7173,11 @@
       <c r="X5" s="26">
         <v>5</v>
       </c>
-      <c r="Y5" s="78">
+      <c r="Y5" s="79">
         <f>V5*W5*0.001</f>
         <v>2.77</v>
       </c>
-      <c r="Z5" s="79">
+      <c r="Z5" s="80">
         <f>V5*W5-X5-Y5</f>
         <v>2762.23</v>
       </c>
@@ -7184,27 +7187,27 @@
       <c r="AB5" s="26">
         <v>27.5</v>
       </c>
-      <c r="AC5" s="83">
+      <c r="AC5" s="84">
         <f>(V5-AB5)/(AA5-AB5)</f>
         <v>0.166666666666666</v>
       </c>
-      <c r="AD5" s="79">
+      <c r="AD5" s="80">
         <f>Z5-K4/2</f>
         <v>139.73</v>
       </c>
-      <c r="AE5" s="84"/>
-      <c r="AF5" s="83">
+      <c r="AE5" s="85"/>
+      <c r="AF5" s="84">
         <f>(V5-G4)/P4</f>
         <v>0.238853503184713</v>
       </c>
-      <c r="AG5" s="88"/>
-      <c r="AH5" s="91"/>
+      <c r="AG5" s="89"/>
+      <c r="AH5" s="92"/>
     </row>
     <row r="6" s="14" customFormat="1" ht="13" spans="1:34">
       <c r="A6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="100" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="28">
@@ -7270,21 +7273,33 @@
       <c r="V6" s="28"/>
       <c r="W6" s="28"/>
       <c r="X6" s="28"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="79"/>
+      <c r="Y6" s="79">
+        <f>V6*W6*0.001</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="80">
+        <f>V6*W6-X6-Y6</f>
+        <v>0</v>
+      </c>
       <c r="AA6" s="28"/>
       <c r="AB6" s="28"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="79"/>
+      <c r="AC6" s="84" t="e">
+        <f>(V6-AB6)/(AA6-AB6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD6" s="80">
+        <f>Z6-K5/2</f>
+        <v>0</v>
+      </c>
       <c r="AE6" s="28"/>
       <c r="AF6" s="63"/>
-      <c r="AH6" s="92"/>
+      <c r="AH6" s="93"/>
     </row>
     <row r="7" s="14" customFormat="1" ht="13" spans="1:34">
       <c r="A7" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="100" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="28">
@@ -7343,28 +7358,52 @@
       <c r="T7" s="65">
         <v>0</v>
       </c>
-      <c r="U7" s="45"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="83"/>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="28"/>
+      <c r="U7" s="75">
+        <v>44539</v>
+      </c>
+      <c r="V7" s="28">
+        <v>37.75</v>
+      </c>
+      <c r="W7" s="28">
+        <v>100</v>
+      </c>
+      <c r="X7" s="28">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="79">
+        <f>V7*W7*0.001</f>
+        <v>3.775</v>
+      </c>
+      <c r="Z7" s="80">
+        <f>V7*W7-X7-Y7</f>
+        <v>3766.225</v>
+      </c>
+      <c r="AA7" s="28">
+        <v>38.83</v>
+      </c>
+      <c r="AB7" s="28">
+        <v>36.3</v>
+      </c>
+      <c r="AC7" s="84">
+        <f>(V7-AB7)/(AA7-AB7)</f>
+        <v>0.57312252964427</v>
+      </c>
+      <c r="AD7" s="80">
+        <f>Z7-K7</f>
+        <v>491.1596</v>
+      </c>
+      <c r="AE7" s="80"/>
       <c r="AF7" s="63"/>
-      <c r="AH7" s="92"/>
+      <c r="AH7" s="93"/>
     </row>
     <row r="8" s="13" customFormat="1" ht="36" spans="1:34">
       <c r="A8" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="100" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="29" t="s">
@@ -7427,23 +7466,23 @@
       <c r="W8" s="30"/>
       <c r="X8" s="30"/>
       <c r="Y8" s="48"/>
-      <c r="Z8" s="79"/>
+      <c r="Z8" s="80"/>
       <c r="AA8" s="30"/>
       <c r="AB8" s="30"/>
-      <c r="AC8" s="83"/>
-      <c r="AD8" s="79"/>
-      <c r="AE8" s="30"/>
+      <c r="AC8" s="84"/>
+      <c r="AD8" s="80"/>
+      <c r="AE8" s="80"/>
       <c r="AF8" s="66"/>
-      <c r="AG8" s="93" t="s">
+      <c r="AG8" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="AH8" s="91"/>
+      <c r="AH8" s="92"/>
     </row>
     <row r="9" s="13" customFormat="1" ht="24" spans="1:34">
       <c r="A9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="101" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="30">
@@ -7518,7 +7557,7 @@
         <f>V9*W9*0.001</f>
         <v>3.015</v>
       </c>
-      <c r="Z9" s="79">
+      <c r="Z9" s="80">
         <f>V9*W9-X9-Y9</f>
         <v>3006.985</v>
       </c>
@@ -7528,29 +7567,29 @@
       <c r="AB9" s="30">
         <v>30.01</v>
       </c>
-      <c r="AC9" s="83">
+      <c r="AC9" s="84">
         <f>(V9-AB9)/(AA9-AB9)</f>
         <v>0.205882352941172</v>
       </c>
-      <c r="AD9" s="79">
+      <c r="AD9" s="80">
         <f>Z9-K9</f>
         <v>-52.0760799999998</v>
       </c>
-      <c r="AE9" s="79"/>
+      <c r="AE9" s="80"/>
       <c r="AF9" s="66">
         <f>(V9-G9)/P9</f>
         <v>-0.0622009569377991</v>
       </c>
-      <c r="AG9" s="94" t="s">
+      <c r="AG9" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="AH9" s="91"/>
+      <c r="AH9" s="92"/>
     </row>
     <row r="10" s="14" customFormat="1" ht="13" spans="1:34">
       <c r="A10" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="101" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="30">
@@ -7623,7 +7662,7 @@
         <f>V10*W10*0.001</f>
         <v>2.783</v>
       </c>
-      <c r="Z10" s="79">
+      <c r="Z10" s="80">
         <f>V10*W10-X10-Y10</f>
         <v>2775.217</v>
       </c>
@@ -7633,32 +7672,32 @@
       <c r="AB10" s="28">
         <v>27.44</v>
       </c>
-      <c r="AC10" s="83">
+      <c r="AC10" s="84">
         <f>(V10-AB10)/(AA10-AB10)</f>
         <v>0.406249999999998</v>
       </c>
-      <c r="AD10" s="79">
+      <c r="AD10" s="80">
         <f>Z10-K10</f>
         <v>-210.84262</v>
       </c>
-      <c r="AE10" s="79"/>
+      <c r="AE10" s="80"/>
       <c r="AF10" s="66">
         <f>(V10-G10)/P10</f>
         <v>-0.196428571428572</v>
       </c>
-      <c r="AG10" s="95" t="s">
+      <c r="AG10" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="AH10" s="92"/>
+      <c r="AH10" s="93"/>
     </row>
     <row r="11" ht="87" spans="1:33">
       <c r="A11" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="100" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="33" t="s">
@@ -7731,7 +7770,7 @@
         <f>V11*W11*0.001</f>
         <v>2.67</v>
       </c>
-      <c r="Z11" s="79">
+      <c r="Z11" s="80">
         <f>V11*W11-X11-Y11</f>
         <v>2662.33</v>
       </c>
@@ -7741,20 +7780,20 @@
       <c r="AB11" s="28">
         <v>25.99</v>
       </c>
-      <c r="AC11" s="83">
+      <c r="AC11" s="84">
         <f>(V11-AB11)/(AA11-AB11)</f>
         <v>0.324200913242009</v>
       </c>
-      <c r="AD11" s="79">
+      <c r="AD11" s="80">
         <f>Z11-K11</f>
         <v>-179.67</v>
       </c>
-      <c r="AE11" s="79"/>
+      <c r="AE11" s="80"/>
       <c r="AF11" s="66">
         <f>(V11-G11)/P11</f>
         <v>-0.218300653594771</v>
       </c>
-      <c r="AG11" s="95" t="s">
+      <c r="AG11" s="96" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7762,7 +7801,7 @@
       <c r="A12" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="100" t="s">
         <v>73</v>
       </c>
       <c r="C12" s="28">
@@ -7842,7 +7881,7 @@
       <c r="A13" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="100" t="s">
         <v>76</v>
       </c>
       <c r="C13" s="28">
@@ -7922,10 +7961,10 @@
       <c r="A14" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="100" t="s">
         <v>79</v>
       </c>
       <c r="D14" s="33" t="s">
@@ -8001,7 +8040,7 @@
       <c r="A15" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="100" t="s">
         <v>83</v>
       </c>
       <c r="C15" s="28">
@@ -8081,7 +8120,7 @@
       <c r="A16" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="100" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="28">
@@ -8161,7 +8200,7 @@
       <c r="A17" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="100" t="s">
         <v>91</v>
       </c>
       <c r="C17" s="28"/>
@@ -8200,7 +8239,7 @@
       <c r="A18" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="100" t="s">
         <v>93</v>
       </c>
       <c r="C18" s="28"/>
@@ -8239,7 +8278,7 @@
       <c r="A19" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="100" t="s">
         <v>95</v>
       </c>
       <c r="C19" s="28"/>
@@ -8278,7 +8317,7 @@
       <c r="A20" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="100" t="s">
         <v>97</v>
       </c>
       <c r="C20" s="28"/>
@@ -22404,13 +22443,15 @@
       <c r="C552" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="58">
     <mergeCell ref="F1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:AC1"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="AD9:AE9"/>
     <mergeCell ref="AD10:AE10"/>
     <mergeCell ref="AD11:AE11"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行状态.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行状态.xlsx
@@ -6662,11 +6662,11 @@
   <dimension ref="A1:BV552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="AA4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD7" sqref="AD7:AE7"/>
+      <selection pane="bottomRight" activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行状态.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行状态.xlsx
@@ -6666,7 +6666,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC9" sqref="AC9"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行状态.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行状态.xlsx
@@ -6616,11 +6616,11 @@
   <dimension ref="A1:BU552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="AA4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="AB4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE8" sqref="AE8"/>
+      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
